--- a/ÁTLAG_sem5.xlsx
+++ b/ÁTLAG_sem5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubRepos\Semester5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AB49D4-6744-4FF7-94A7-834D6740524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF94FB1-5645-42DD-B6E1-CF965EEB0C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Tárgy neve</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Szerveroldali webprogramozás Ea+Gy</t>
+  </si>
+  <si>
+    <t>vizsga</t>
+  </si>
+  <si>
+    <t>vizgsa</t>
+  </si>
+  <si>
+    <t>vizsga ?</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
@@ -746,7 +755,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,6 +816,9 @@
         <f t="shared" ref="D3:D18" si="0">B3*C3</f>
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,6 +837,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
       <c r="T4" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,6 +911,9 @@
       <c r="D8" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>9</v>

--- a/ÁTLAG_sem5.xlsx
+++ b/ÁTLAG_sem5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubRepos\Semester5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF94FB1-5645-42DD-B6E1-CF965EEB0C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDBA95A-1AAC-4857-875C-D4EB4CCBDA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tárgyak" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -153,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +207,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +234,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -379,10 +392,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -447,8 +461,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -755,7 +773,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,11 +849,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -870,11 +888,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>7</v>
@@ -888,11 +906,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>8</v>
@@ -906,11 +924,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -962,7 +980,7 @@
       <c r="B11" s="19">
         <v>3</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="21">
         <v>5</v>
       </c>
       <c r="D11" s="18">
@@ -1069,7 +1087,7 @@
       </c>
       <c r="B21" s="5">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)</f>
-        <v>3.8787878787878789</v>
+        <v>4.115384615384615</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -1078,7 +1096,7 @@
       </c>
       <c r="B22" s="6">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/30</f>
-        <v>4.2666666666666666</v>
+        <v>3.5666666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -1087,7 +1105,7 @@
       </c>
       <c r="B23" s="7" t="str">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)&amp;" / "&amp;SUM(B2:B18)</f>
-        <v>33 / 33</v>
+        <v>26 / 33</v>
       </c>
     </row>
   </sheetData>

--- a/ÁTLAG_sem5.xlsx
+++ b/ÁTLAG_sem5.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubRepos\Semester5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_repos\Semester5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDBA95A-1AAC-4857-875C-D4EB4CCBDA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Tárgyak" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tárgy neve</t>
   </si>
@@ -39,60 +37,6 @@
     <t>Kredit</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>1005083158</t>
-  </si>
-  <si>
-    <t>995012517</t>
-  </si>
-  <si>
-    <t>1005084744</t>
-  </si>
-  <si>
-    <t>1005080854</t>
-  </si>
-  <si>
-    <t>995012608</t>
-  </si>
-  <si>
-    <t>1011539553</t>
-  </si>
-  <si>
-    <t>1005081166</t>
-  </si>
-  <si>
-    <t>1009228670</t>
-  </si>
-  <si>
-    <t>1009228581</t>
-  </si>
-  <si>
-    <t>995012449</t>
-  </si>
-  <si>
-    <t>995012561</t>
-  </si>
-  <si>
-    <t>1005084085</t>
-  </si>
-  <si>
-    <t>1005081221</t>
-  </si>
-  <si>
-    <t>995012539</t>
-  </si>
-  <si>
-    <t>1005081455</t>
-  </si>
-  <si>
-    <t>1005081309</t>
-  </si>
-  <si>
-    <t>995012394</t>
-  </si>
-  <si>
     <t>Jegy</t>
   </si>
   <si>
@@ -148,13 +92,31 @@
   </si>
   <si>
     <t>vizsga ?</t>
+  </si>
+  <si>
+    <t>eddig: 65 + 6?</t>
+  </si>
+  <si>
+    <t>47 pont kell potzh-n</t>
+  </si>
+  <si>
+    <t>Fullos 2. beadandóval, 2 pont hiányzik 5öshöz</t>
+  </si>
+  <si>
+    <t>Javiton +4 pont kene 4eshez</t>
+  </si>
+  <si>
+    <t>ha javiton és graphql-en max 3 pontot veszitek 4</t>
+  </si>
+  <si>
+    <t>szorgalmik +2 +  javító +30 =&gt; 4es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +176,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,7 +221,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEECE1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,11 +390,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -420,9 +417,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -461,13 +455,28 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -769,339 +778,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="20" max="20" width="0" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18">
+        <v>3</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17">
+        <f>B2*C2</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D18" si="0">B3*C3</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="25">
+        <v>3</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="C10" s="25">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="C11" s="26">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="18">
+        <v>4</v>
+      </c>
+      <c r="C12" s="25">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="19">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" s="18">
-        <f>B2*C2</f>
-        <v>9</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="19">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18">
-        <f t="shared" ref="D3:D18" si="0">B3*C3</f>
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="19">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="19">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4</v>
-      </c>
-      <c r="D5" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="19">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="19">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21">
-        <v>5</v>
-      </c>
-      <c r="D11" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="19">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B21" s="5">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)</f>
-        <v>4.115384615384615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.7692307692307692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B22" s="6">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/30</f>
-        <v>3.5666666666666669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.2666666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B23" s="7" t="str">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)&amp;" / "&amp;SUM(B2:B18)</f>
@@ -1109,7 +1256,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C18">
+  <conditionalFormatting sqref="A13:C18 A2:B12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=1</formula>
     </cfRule>

--- a/ÁTLAG_sem5.xlsx
+++ b/ÁTLAG_sem5.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Tárgy neve</t>
   </si>
@@ -94,29 +94,32 @@
     <t>vizsga ?</t>
   </si>
   <si>
-    <t>eddig: 65 + 6?</t>
-  </si>
-  <si>
     <t>47 pont kell potzh-n</t>
   </si>
   <si>
     <t>Fullos 2. beadandóval, 2 pont hiányzik 5öshöz</t>
   </si>
   <si>
-    <t>Javiton +4 pont kene 4eshez</t>
-  </si>
-  <si>
     <t>ha javiton és graphql-en max 3 pontot veszitek 4</t>
   </si>
   <si>
-    <t>szorgalmik +2 +  javító +30 =&gt; 4es</t>
+    <t>vizsgán lehetne javítani</t>
+  </si>
+  <si>
+    <t>eddig: 72</t>
+  </si>
+  <si>
+    <t>javító +24 =&gt; 4es</t>
+  </si>
+  <si>
+    <t>eddig: 65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,14 +188,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFF2F2F2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -200,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +232,11 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -390,14 +390,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -455,18 +453,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -474,11 +463,21 @@
     <xf numFmtId="1" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -779,484 +778,752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="0" hidden="1"/>
+    <col min="14" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="1"/>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>3</v>
       </c>
       <c r="C2" s="23">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16">
+        <f>B2*C2</f>
+        <v>9</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="17">
+        <v>3</v>
+      </c>
+      <c r="P2" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="16">
+        <f>O2*P2</f>
+        <v>9</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="D2" s="17">
-        <f>B2*C2</f>
-        <v>6</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18">
-        <v>2</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>4</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f t="shared" ref="D3:D18" si="0">B3*C3</f>
         <v>8</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="N3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17">
+        <v>2</v>
+      </c>
+      <c r="P3" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="16">
+        <f t="shared" ref="Q3:Q18" si="1">O3*P3</f>
+        <v>8</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="B4" s="17">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="N4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="17">
+        <v>3</v>
+      </c>
+      <c r="P4" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
         <v>5</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="N5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="17">
+        <v>3</v>
+      </c>
+      <c r="P5" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="N6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="17">
+        <v>4</v>
+      </c>
+      <c r="P6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="N7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3</v>
+      </c>
+      <c r="P7" s="21">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="Q7" s="16">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B7" s="18">
-        <v>3</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23">
         <v>4</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="E8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="N8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18">
-        <v>3</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="O8" s="17">
+        <v>3</v>
+      </c>
+      <c r="P8" s="20">
         <v>5</v>
       </c>
-      <c r="D8" s="17">
+      <c r="Q8" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+      <c r="C9" s="23">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="N9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="17">
+        <v>3</v>
+      </c>
+      <c r="P9" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="N10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="17">
+        <v>2</v>
+      </c>
+      <c r="P10" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="22">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18">
-        <v>3</v>
-      </c>
-      <c r="C9" s="25">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="N11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="17">
+        <v>3</v>
+      </c>
+      <c r="P11" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="21">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="18">
-        <v>2</v>
-      </c>
-      <c r="C10" s="25">
-        <v>3</v>
-      </c>
-      <c r="D10" s="17">
+        <v>16</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="N12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="17">
+        <v>4</v>
+      </c>
+      <c r="P12" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)</f>
+        <v>3.9615384615384617</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="4">
+        <f>SUMIF(P2:P18,"&gt;"&amp;1,Q2:Q18)/SUMIF(P2:P18,"&gt;"&amp;1,O2:O18)</f>
+        <v>3.9615384615384617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/30</f>
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="5">
+        <f>SUMIF(P2:P18,"&gt;"&amp;1,Q2:Q18)/30</f>
+        <v>3.4333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="18">
-        <v>3</v>
-      </c>
-      <c r="C11" s="26">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="18">
-        <v>4</v>
-      </c>
-      <c r="C12" s="25">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5">
-        <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)</f>
-        <v>3.7692307692307692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6">
-        <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/30</f>
-        <v>3.2666666666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="6" t="str">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)&amp;" / "&amp;SUM(B2:B18)</f>
         <v>26 / 33</v>
       </c>
+      <c r="N23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="6" t="str">
+        <f>SUMIF(P2:P18,"&gt;"&amp;1,O2:O18)&amp;" / "&amp;SUM(O2:O18)</f>
+        <v>26 / 33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="24">
+        <v>4.71</v>
+      </c>
+      <c r="H29" s="24">
+        <v>29</v>
+      </c>
+      <c r="J29">
+        <f>G29*H29</f>
+        <v>136.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G30" s="24">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H30" s="24">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J33" si="2">G30*H30</f>
+        <v>165.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G31" s="24">
+        <v>4.17</v>
+      </c>
+      <c r="H31" s="24">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>150.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G32" s="24">
+        <v>4.08</v>
+      </c>
+      <c r="H32" s="24">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>130.56</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="24">
+        <v>3.96</v>
+      </c>
+      <c r="H33" s="24">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>102.96</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="24"/>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f>SUM(J29:J33)/SUM(H29:H33)</f>
+        <v>4.2603105590062116</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:C18 A2:B12">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:P18 N2:O12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=1</formula>
     </cfRule>

--- a/ÁTLAG_sem5.xlsx
+++ b/ÁTLAG_sem5.xlsx
@@ -781,7 +781,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,11 +877,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="16">
         <f t="shared" ref="D3:D18" si="0">B3*C3</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>19</v>
@@ -1258,12 +1258,12 @@
       <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="21">
-        <v>4</v>
+      <c r="C12" s="23">
+        <v>3</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B21" s="4">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)</f>
-        <v>3.9615384615384617</v>
+        <v>3.6538461538461537</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>4</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/30</f>
-        <v>3.4333333333333331</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>5</v>
